--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -1,118 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE9B6D0-EE1E-4B3E-BEE4-B31EB2B85C89}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15980"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+  <si>
+    <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>#测试说明</t>
+  </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>身高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>体重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试说明</t>
   </si>
   <si>
     <t>米克尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#测试说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>带有强力攻击技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -120,7 +92,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -128,11 +99,161 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +266,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -154,32 +461,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -228,7 +821,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,26 +854,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,23 +889,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,128 +1059,128 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="3:9">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:9">
+      <c r="C6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="3">
-        <v>1001</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>178</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
-  <si>
-    <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>#测试说明</t>
+    <t>测试说明</t>
   </si>
   <si>
     <t>名字</t>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>测试说明</t>
   </si>
   <si>
     <t>米克尔</t>
@@ -75,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -109,33 +106,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,15 +143,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,9 +158,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,37 +167,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +212,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -230,16 +227,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,139 +265,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,37 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +487,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -500,21 +512,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,17 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,142 +562,142 @@
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1065,10 +1062,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="C2:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="5"/>
@@ -1085,8 +1082,8 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="4:4">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1160,13 +1157,13 @@
         <v>1001</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Project\ET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1940935D-85E9-4D41-9B67-93DA2E4C222B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E57760-B1FC-4298-AF2E-1795F8C6BD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30375" yWindow="1395" windowWidth="22170" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -619,7 +619,7 @@
     <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
       <c r="C6" s="6">
-        <v>10001</v>
+        <v>1001</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -646,7 +646,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="6">
-        <v>10002</v>
+        <v>1002</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -673,7 +673,7 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="6">
-        <v>10003</v>
+        <v>1003</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -713,7 +713,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="6">
-        <v>10005</v>
+        <v>1005</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -740,7 +740,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="6">
-        <v>10006</v>
+        <v>1006</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -767,7 +767,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="6">
-        <v>10007</v>
+        <v>1007</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>#</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -68,6 +74,15 @@
   </si>
   <si>
     <t>带有强力攻击技能</t>
+  </si>
+  <si>
+    <t>测试说明2</t>
+  </si>
+  <si>
+    <t>米克尔2</t>
+  </si>
+  <si>
+    <t>带有强力攻击技能2</t>
   </si>
 </sst>
 </file>
@@ -75,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -102,9 +117,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -117,15 +147,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,73 +248,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -214,40 +261,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,37 +283,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,43 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,97 +457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,11 +477,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,21 +557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -534,176 +566,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,13 +1080,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J6"/>
+  <dimension ref="C2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1085,83 +1100,89 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:5">
+    <row r="2" spans="5:10">
       <c r="E2" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="3:10">
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="3:10">
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:10">
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:10">
@@ -1172,13 +1193,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -1188,6 +1209,32 @@
       </c>
       <c r="J6" s="1">
         <v>68</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:10">
+      <c r="C7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>278</v>
+      </c>
+      <c r="J7" s="1">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
